--- a/Excels/Item.xlsx
+++ b/Excels/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\testu\Documents\Unity\UnityAndMySQLAndExcelTest\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityAndMySQLAndExcelTest\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CD7B9-7906-4855-95E1-F20CDCCFE00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123AFBA-DB1B-4AA5-909F-2D8CB2C10572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1350" windowWidth="22515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1860" windowWidth="22515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_item" sheetId="1" r:id="rId1"/>
@@ -21,159 +21,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test message1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test message2</t>
+  </si>
+  <si>
+    <t>test message3</t>
+  </si>
+  <si>
+    <t>test message4</t>
+  </si>
+  <si>
+    <t>test message5</t>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip test1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equip test2</t>
+  </si>
+  <si>
+    <t>equip test3</t>
+  </si>
+  <si>
+    <t>equip test4</t>
+  </si>
+  <si>
+    <t>equip test5</t>
+  </si>
   <si>
     <t>key</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>キー</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>icon</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アイコンパス</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>hp</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>attack</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>攻撃力</t>
-  </si>
-  <si>
-    <t>ポルカ族</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>バケット族</t>
-  </si>
-  <si>
-    <t>デスフラワー</t>
-  </si>
-  <si>
-    <t>ダークフラワー</t>
-  </si>
-  <si>
-    <t>ジャイアントビー</t>
-  </si>
-  <si>
-    <t>ポイズンビー</t>
-  </si>
-  <si>
-    <t>キラービー</t>
-  </si>
-  <si>
-    <t>スリープビー</t>
-  </si>
-  <si>
-    <t>コグモ</t>
-  </si>
-  <si>
-    <t>ヒコグモ</t>
-  </si>
-  <si>
-    <t>ミズコグモ</t>
-  </si>
-  <si>
-    <t>ショートソード</t>
-  </si>
-  <si>
-    <t>ロングソード</t>
-  </si>
-  <si>
-    <t>レイピア</t>
-  </si>
-  <si>
-    <t>ブロードソード</t>
-  </si>
-  <si>
-    <t>エストック</t>
-  </si>
-  <si>
-    <t>カッツバルゲル</t>
-  </si>
-  <si>
-    <t>カットラス</t>
-  </si>
-  <si>
-    <t>ノルディアソード</t>
-  </si>
-  <si>
-    <t>サイフォス</t>
-  </si>
-  <si>
-    <t>スクラマサクス</t>
-  </si>
-  <si>
-    <t>王宮騎士の剣</t>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイコンパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>modifiers</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,19 +142,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[{"value":6,"type":200,"targetType":2},{"value":7,"type":200,"targetType":2},{"value":8,"type":200,"targetType":1},{"value":9,"type":200,"targetType":1},{"value":10,"type":200,"targetType":0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[{"value":14.5,"type":300,"targetType":0},{"value":10,"type":200,"targetType":0},{"value":5,"type":100,"targetType":0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>[{"value":4354,"type":300,"targetType":2},{"value":33,"type":200,"targetType":0},{"value":12,"type":200,"targetType":1}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -262,29 +210,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C330CFD-79A5-4269-B4C0-157FDB7DF9B1}" name="TestTable" displayName="TestTable" ref="B4:G15" totalsRowShown="0">
-  <autoFilter ref="B4:G15" xr:uid="{FD535ECD-0556-4369-8B25-26394183D103}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA4D4E6C-0A7A-4F00-B7FF-0AA3332E8DD3}" name="TestTable" displayName="TestTable" ref="B4:G9" totalsRowShown="0">
+  <autoFilter ref="B4:G9" xr:uid="{50F26E60-DDF6-4B58-A829-35025E2CC0CE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{906019C2-2E30-4EA1-BEFB-92A674A99618}" name="キー"/>
-    <tableColumn id="2" xr3:uid="{920CBB4E-88C5-465C-B118-2AF980B4FEDA}" name="名前"/>
-    <tableColumn id="3" xr3:uid="{87D6A146-5079-48F7-B53A-8CAFD9E2C402}" name="説明"/>
-    <tableColumn id="4" xr3:uid="{06C998D8-1DE8-40AA-B349-C17A96067828}" name="アイコンパス"/>
-    <tableColumn id="5" xr3:uid="{5C8BF493-266A-4AC9-93ED-D62238E33793}" name="HP"/>
-    <tableColumn id="6" xr3:uid="{A0A2733A-02E0-4264-817E-FAD8BD65CFB3}" name="攻撃力"/>
+    <tableColumn id="1" xr3:uid="{06994A31-8236-4230-B7F3-C511DF31A568}" name="キー"/>
+    <tableColumn id="2" xr3:uid="{96783339-D0F2-425B-8D84-F167D1DE34CB}" name="名前"/>
+    <tableColumn id="3" xr3:uid="{974CEBC3-5EE3-4C41-B1EE-FA3E67F58F52}" name="説明"/>
+    <tableColumn id="4" xr3:uid="{F5735B19-E896-4EA0-9C1F-4C94B78359AB}" name="アイコンパス"/>
+    <tableColumn id="5" xr3:uid="{792E119E-AD66-47AC-ABC9-D1801D367CED}" name="HP"/>
+    <tableColumn id="6" xr3:uid="{61A93799-3EFF-4F7C-B932-4423749CBB58}" name="攻撃力"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5078DE67-DACE-4017-ADCD-D7B44B6FE943}" name="TestTable" displayName="TestTable_1" ref="B4:F15" totalsRowShown="0">
-  <autoFilter ref="B4:F15" xr:uid="{BF294CCB-3EEE-43EA-953C-60513551602C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F81F0732-21E0-44AE-A060-9DA227DBF8F1}" name="TestTable" displayName="TestTable_1" ref="B4:F9" totalsRowShown="0">
+  <autoFilter ref="B4:F9" xr:uid="{8E3B5C1E-1C60-4200-9DBB-66AFDB1FBF0F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7B8E404C-3566-40B8-995F-97CF7290C2A7}" name="キー"/>
-    <tableColumn id="2" xr3:uid="{941AB5F5-46E0-44DF-90AA-7E31EC6170FC}" name="名前"/>
-    <tableColumn id="3" xr3:uid="{E35DA26C-E526-4B20-85FB-8F0E8732456A}" name="説明"/>
-    <tableColumn id="4" xr3:uid="{79A49DE6-F4A9-430E-90A2-E9E03356E61A}" name="アイコンパス"/>
-    <tableColumn id="5" xr3:uid="{82403291-8500-49D0-B85F-DC53CB2242E5}" name="Stat変更Objリスト"/>
+    <tableColumn id="1" xr3:uid="{FF34F541-7264-43E6-A66C-6D3661A203D6}" name="キー"/>
+    <tableColumn id="2" xr3:uid="{9535558A-39C6-45DF-9AA5-B8B7B90A23C7}" name="名前"/>
+    <tableColumn id="3" xr3:uid="{013E1B3A-001B-445C-8D1C-0E17FB0D1CB9}" name="説明"/>
+    <tableColumn id="4" xr3:uid="{81D97425-2751-415D-8533-DA8736911B5D}" name="アイコンパス"/>
+    <tableColumn id="5" xr3:uid="{90D787BA-35FC-447F-B1CE-CAAEC4D0E53D}" name="Stat変更Objリスト"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,20 +535,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="6" max="7" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -617,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -645,268 +592,148 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -920,15 +747,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
@@ -971,229 +798,127 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>205</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>208</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>209</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>210</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
